--- a/T2 SE Optimizacion/T2_Optimización.xlsx
+++ b/T2 SE Optimizacion/T2_Optimización.xlsx
@@ -5,44 +5,49 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/ma_vargas73_uniandes_edu_co/Documents/Semestres/Monitorias/Herramientas Computacionales - Nelson/Talleres Nuevos/T2/T2 SE Optimizacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/c_espejo_uniandes_edu_co/Documents/Herramientas Computacionales/Taller_1_HC_2023/T2 SE Optimizacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2718" documentId="8_{18D8E6BA-09CA-4B7F-B107-C4A9DE676C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FB4A2A7-F774-4D52-A714-A47800BA5979}"/>
+  <xr:revisionPtr revIDLastSave="6475" documentId="8_{18D8E6BA-09CA-4B7F-B107-C4A9DE676C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57FFB649-EFFF-4A9F-9B33-E3405FEA1526}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{165F5127-6AFB-4F6B-8C4C-76065397AC5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{165F5127-6AFB-4F6B-8C4C-76065397AC5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Hoja1!$O$58</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Hoja1!$B$18</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Hoja1!$B$18</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Hoja1!$B$11</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Hoja1!$B$11</definedName>
+    <definedName name="solver_lhs0" localSheetId="0" hidden="1">Hoja1!$S$18</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Hoja1!$O$58</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Hoja1!$O$58</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Hoja1!$S$18</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Hoja1!$S$18</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Hoja1!$O$74</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel0" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">15</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">10</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">95</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">10</definedName>
+    <definedName name="solver_rhs0" localSheetId="0" hidden="1">Hoja1!$R$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Hoja1!$K$56</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Hoja1!$J$56</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Hoja1!$R$16</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Hoja1!$R$16</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -55,6 +60,7 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="43">
   <si>
     <t>Distancias</t>
   </si>
@@ -169,6 +175,42 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>optimar fuerza de salida</t>
+  </si>
+  <si>
+    <t>funcion objetivo</t>
+  </si>
+  <si>
+    <t>F out</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>restricciones ¨= variables</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>60 (num en diapo)</t>
+  </si>
+  <si>
+    <t>"NO modificar"</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>Theta</t>
+  </si>
 </sst>
 </file>
 
@@ -177,7 +219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +250,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Microsoft JhengHei"/>
       <family val="2"/>
     </font>
@@ -363,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -442,6 +491,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,6 +507,2112 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>F_out de</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> acuerdo a longitud de manivela</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F_out</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$36:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$36:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>67.235601780949068</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.150261513806704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.720209211045365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.100174342537805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7148-4C76-9EAA-89B6D9FD4C8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="534283168"/>
+        <c:axId val="527598272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="534283168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t>Longitud m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>anivela [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527598272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="527598272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>F_out</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> [N]</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534283168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>F_out de acuerdo a ángulo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> theta</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F_out</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$61:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$61:$G$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.736481776669303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7111359948427958</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3969262078590816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B0A-4CE1-A094-A97085EE522D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1974255167"/>
+        <c:axId val="1970752591"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1974255167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1970752591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1970752591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1974255167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>658090</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>62346</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>526472</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24126939-8510-415E-38B6-370D72647ACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>671945</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>117763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>678871</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>83126</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F2057BB-6687-C022-A9C8-A9EA631C62AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>41564</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>595746</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89E74FB0-648D-03E8-55BD-405564150488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1316182" y="7079673"/>
+          <a:ext cx="2867891" cy="1856509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>#2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t> De acuerdo a las gráficas podemos analizar que si incrementamos la longitud de la manivela.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>#3 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-CO" sz="1100"/>
+            <a:t>se reduce la fuerza de salida y pasa totalmente lo contrario cuando aplicamos la variación al angulo theta cuando aumentamos el angulo aumenta la fuerza de salida</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -756,78 +2912,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636FFCF8-6402-484D-91C2-40667F260D51}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:AI74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15.6" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="18.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="1"/>
+    <col min="6" max="6" width="8.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="52.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="1" customWidth="1"/>
+    <col min="9" max="13" width="11.44140625" style="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="29"/>
-    </row>
-    <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
+      <c r="N1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
+      <c r="R1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="28"/>
+      <c r="T1" s="29"/>
+    </row>
+    <row r="2" spans="1:35" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <v>1</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="8">
+        <v>1</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="8">
+        <v>1</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="4"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="4"/>
+    </row>
+    <row r="3" spans="1:35" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="F3" s="17"/>
       <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="8">
+        <v>3</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="4"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="4"/>
+    </row>
+    <row r="4" spans="1:35" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="17">
+        <f>(SIN(B22)*B2)+(SIN(B12)*B3)</f>
+        <v>0.99850074226011587</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="17">
+        <f>(SIN(K22)*K2)+(SIN(K12)*K3)</f>
+        <v>1.4965980913059886</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="17">
+        <f>(SIN(O22)*O2)+(SIN(O12)*O3)</f>
+        <v>1.9946954403518617</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="17">
+        <f>(SIN(S22)*S2)+(SIN(S12)*S3)</f>
+        <v>0.69964233283259214</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="4"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="4"/>
+    </row>
+    <row r="5" spans="1:35" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F5" s="6"/>
       <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="4"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="4"/>
+    </row>
+    <row r="6" spans="1:35" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
@@ -839,18 +3146,53 @@
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
+      <c r="N6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="28"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="28"/>
+      <c r="T6" s="29"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+    </row>
+    <row r="7" spans="1:35" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="35"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
+      <c r="N7" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="34"/>
+      <c r="P7" s="35"/>
+      <c r="R7" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+    </row>
+    <row r="8" spans="1:35" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>25</v>
       </c>
@@ -860,55 +3202,240 @@
       <c r="C8" s="21" t="s">
         <v>27</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="J8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16">
+        <v>10</v>
+      </c>
+      <c r="B9" s="16">
+        <v>95</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="16">
+        <v>10</v>
+      </c>
+      <c r="K9" s="16">
+        <v>95</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="16">
+        <v>10</v>
+      </c>
+      <c r="O9" s="16">
+        <v>95</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="16">
+        <v>10</v>
+      </c>
+      <c r="S9" s="16">
+        <v>95</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f>RADIANS(A9)</f>
-        <v>0</v>
+        <v>0.17453292519943295</v>
       </c>
       <c r="B10" s="1">
         <f>RADIANS(B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.6580627893946132</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="1">
+        <f>RADIANS(J9)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="K10" s="1">
+        <f>RADIANS(K9)</f>
+        <v>1.6580627893946132</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="1">
+        <f>RADIANS(N9)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="O10" s="1">
+        <f>RADIANS(O9)</f>
+        <v>1.6580627893946132</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="1">
+        <f>RADIANS(R9)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="S10" s="1">
+        <f>RADIANS(S9)</f>
+        <v>1.6580627893946132</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="15">
+        <v>95</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="15">
+        <v>95</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="15">
+        <v>95</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="15">
+        <v>95</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="9">
         <f>RADIANS(B11)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="16"/>
+        <v>1.6580627893946132</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="7"/>
+      <c r="K12" s="9">
+        <f>RADIANS(K11)</f>
+        <v>1.6580627893946132</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="9">
+        <f>RADIANS(O11)</f>
+        <v>1.6580627893946132</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="S12" s="9">
+        <f>RADIANS(S11)</f>
+        <v>1.6580627893946132</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="35"/>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+      <c r="N14" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="34"/>
+      <c r="P14" s="35"/>
+      <c r="R14" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="34"/>
+      <c r="T14" s="35"/>
+    </row>
+    <row r="15" spans="1:35" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
@@ -918,38 +3445,201 @@
       <c r="C15" s="21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-    </row>
-    <row r="17" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="16">
+        <v>45</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="16">
+        <v>10</v>
+      </c>
+      <c r="K16" s="16">
+        <v>45</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="16">
+        <v>10</v>
+      </c>
+      <c r="O16" s="16">
+        <v>45</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R16" s="16">
+        <v>10</v>
+      </c>
+      <c r="S16" s="16">
+        <v>45</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f>RADIANS(A16)</f>
-        <v>0</v>
+        <v>0.17453292519943295</v>
       </c>
       <c r="B17" s="1">
         <f>RADIANS(B16)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="16"/>
-    </row>
-    <row r="18" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1">
+        <f>RADIANS(J16)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="K17" s="1">
+        <f>RADIANS(K16)</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="1">
+        <f>RADIANS(N16)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="O17" s="1">
+        <f>RADIANS(O16)</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="1">
+        <f>RADIANS(R16)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="S17" s="1">
+        <f>RADIANS(S16)</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="1:3" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="15">
+        <v>9.9999999999999947</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="15">
+        <v>9.9999999999999947</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="15">
+        <v>10</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" s="15">
+        <v>10.000000000000004</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="9">
         <f>RADIANS(B18)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="16"/>
-    </row>
-    <row r="21" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.17453292519943286</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="9">
+        <f>RADIANS(K18)</f>
+        <v>0.17453292519943286</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="9">
+        <f>RADIANS(O18)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R19" s="7"/>
+      <c r="S19" s="9">
+        <f>RADIANS(S18)</f>
+        <v>0.174532925199433</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+    </row>
+    <row r="21" spans="1:31" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
         <v>5</v>
       </c>
@@ -959,101 +3649,1371 @@
       <c r="C21" s="25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
+      <c r="J21" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="13">
+        <f>90-B18</f>
+        <v>80</v>
+      </c>
       <c r="C22" s="9">
         <f>RADIANS(B22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="13">
+        <f>90-K18</f>
+        <v>80</v>
+      </c>
+      <c r="L22" s="9">
+        <f>RADIANS(K22)</f>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="13">
+        <f>90-O18</f>
+        <v>80</v>
+      </c>
+      <c r="P22" s="9">
+        <f>RADIANS(O22)</f>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="R22" s="7"/>
+      <c r="S22" s="13">
+        <f>90-S18</f>
+        <v>80</v>
+      </c>
+      <c r="T22" s="9">
+        <f>RADIANS(S22)</f>
+        <v>1.3962634015954636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T23" s="7"/>
+    </row>
+    <row r="24" spans="1:31" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
-    </row>
-    <row r="25" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
+      <c r="N24" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="28"/>
+      <c r="P24" s="29"/>
+      <c r="R24" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="S24" s="28"/>
+      <c r="T24" s="29"/>
+    </row>
+    <row r="25" spans="1:31" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
       <c r="C25" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="17">
+        <v>1</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O25" s="17">
+        <v>1</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S25" s="17">
+        <v>1</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31"/>
-      <c r="B26" s="17"/>
+      <c r="B26" s="17">
+        <f>COS(C22)+SIN(C22)*_xlfn.COT(B12)</f>
+        <v>8.7488663525924021E-2</v>
+      </c>
       <c r="C26" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="31"/>
+      <c r="K26" s="17">
+        <f>COS(L22)+SIN(L22)*_xlfn.COT(K12)</f>
+        <v>8.7488663525924021E-2</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="31"/>
+      <c r="O26" s="17">
+        <f>COS(P22)+SIN(P22)*_xlfn.COT(O12)</f>
+        <v>8.7488663525924021E-2</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" s="31"/>
+      <c r="S26" s="17">
+        <f>COS(T22)+SIN(T22)*_xlfn.COT(S12)</f>
+        <v>8.7488663525924021E-2</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="32"/>
-      <c r="B27" s="9" t="e">
+      <c r="B27" s="9">
         <f>B25/B26</f>
-        <v>#DIV/0!</v>
+        <v>11.430052302761341</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="32"/>
+      <c r="K27" s="9">
+        <f>K25/K26</f>
+        <v>11.430052302761341</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="32"/>
+      <c r="O27" s="9">
+        <f>O25/O26</f>
+        <v>11.430052302761341</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R27" s="32"/>
+      <c r="S27" s="9">
+        <f>S25/S26</f>
+        <v>11.430052302761341</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K28" s="11"/>
+      <c r="L28" s="12"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="12"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="12"/>
+    </row>
+    <row r="29" spans="1:31" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="29"/>
-    </row>
-    <row r="30" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="28"/>
+      <c r="L29" s="29"/>
+      <c r="N29" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="28"/>
+      <c r="P29" s="29"/>
+      <c r="R29" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="28"/>
+      <c r="T29" s="29"/>
+    </row>
+    <row r="30" spans="1:31" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="18">
+        <v>10</v>
+      </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="18">
+        <v>10</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O30" s="18">
+        <v>10</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="S30" s="18">
+        <v>10</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="17"/>
+      <c r="B31" s="17">
+        <f>B30*B27</f>
+        <v>114.30052302761341</v>
+      </c>
       <c r="C31" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="17">
+        <f>K30*K27</f>
+        <v>114.30052302761341</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" s="17">
+        <f>O30*O27</f>
+        <v>114.30052302761341</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R31" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="S31" s="17">
+        <f>S30*S27</f>
+        <v>114.30052302761341</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="10"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="12"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="12"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="12"/>
+    </row>
+    <row r="33" spans="1:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="29"/>
-    </row>
-    <row r="34" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="28"/>
+      <c r="L33" s="29"/>
+      <c r="N33" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="O33" s="28"/>
+      <c r="P33" s="29"/>
+      <c r="R33" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S33" s="28"/>
+      <c r="T33" s="29"/>
+    </row>
+    <row r="34" spans="1:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="17">
+        <f>B31/B3</f>
+        <v>57.150261513806704</v>
+      </c>
       <c r="C34" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="J34" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="17">
+        <f>K31/K3</f>
+        <v>45.720209211045365</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" s="17">
+        <f>O31/O3</f>
+        <v>38.100174342537805</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R34" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="S34" s="17">
+        <f>S31/S3</f>
+        <v>67.235601780949068</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="17">
+        <v>67.235601780949068</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" s="8">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F37" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="17">
+        <v>57.150261513806704</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="17">
+        <v>45.720209211045365</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F39" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="17">
+        <v>38.100174342537805</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J41" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" s="28"/>
+      <c r="L41" s="29"/>
+      <c r="N41" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" s="28"/>
+      <c r="P41" s="29"/>
+      <c r="R41" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S41" s="28"/>
+      <c r="T41" s="29"/>
+    </row>
+    <row r="42" spans="1:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J42" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="8">
+        <v>1</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N42" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="O42" s="8">
+        <v>1</v>
+      </c>
+      <c r="P42" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="S42" s="8">
+        <v>1</v>
+      </c>
+      <c r="T42" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J43" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="K43" s="8">
+        <v>2</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N43" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="O43" s="8">
+        <v>2</v>
+      </c>
+      <c r="P43" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="S43" s="8">
+        <v>2</v>
+      </c>
+      <c r="T43" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J44" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="17">
+        <f>(SIN(K62)*K42)+(SIN(K52)*K43)</f>
+        <v>-0.30984836727203779</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="N44" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="17">
+        <f>(SIN(O62)*O42)+(SIN(O52)*O43)</f>
+        <v>0.88549658764844141</v>
+      </c>
+      <c r="P44" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="S44" s="17">
+        <f>(SIN(S62)*S42)+(SIN(S52)*S43)</f>
+        <v>0.88549658764844141</v>
+      </c>
+      <c r="T44" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+    </row>
+    <row r="46" spans="1:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J46" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="28"/>
+      <c r="L46" s="29"/>
+      <c r="N46" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="O46" s="28"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="S46" s="28"/>
+      <c r="T46" s="29"/>
+    </row>
+    <row r="47" spans="1:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J47" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="34"/>
+      <c r="L47" s="35"/>
+      <c r="N47" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="34"/>
+      <c r="P47" s="35"/>
+      <c r="R47" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="34"/>
+      <c r="T47" s="35"/>
+    </row>
+    <row r="48" spans="1:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J48" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P48" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R48" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="S48" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="T48" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J49" s="16">
+        <v>10</v>
+      </c>
+      <c r="K49" s="16">
+        <v>95</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N49" s="16">
+        <v>10</v>
+      </c>
+      <c r="O49" s="16">
+        <v>95</v>
+      </c>
+      <c r="P49" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R49" s="16">
+        <v>10</v>
+      </c>
+      <c r="S49" s="16">
+        <v>95</v>
+      </c>
+      <c r="T49" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J50" s="1">
+        <f>RADIANS(J49)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="K50" s="1">
+        <f>RADIANS(K49)</f>
+        <v>1.6580627893946132</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N50" s="1">
+        <f>RADIANS(N49)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="O50" s="1">
+        <f>RADIANS(O49)</f>
+        <v>1.6580627893946132</v>
+      </c>
+      <c r="P50" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R50" s="1">
+        <f>RADIANS(R49)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="S50" s="1">
+        <f>RADIANS(S49)</f>
+        <v>1.6580627893946132</v>
+      </c>
+      <c r="T50" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J51" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="15">
+        <v>20</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N51" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O51" s="15">
+        <v>70</v>
+      </c>
+      <c r="P51" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R51" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="S51" s="15">
+        <v>70</v>
+      </c>
+      <c r="T51" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="36"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="9">
+        <f>RADIANS(K51)</f>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="7"/>
+      <c r="O52" s="9">
+        <f>RADIANS(O51)</f>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="P52" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="7"/>
+      <c r="S52" s="9">
+        <f>RADIANS(S51)</f>
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="T52" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J54" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54" s="34"/>
+      <c r="L54" s="35"/>
+      <c r="N54" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="O54" s="34"/>
+      <c r="P54" s="35"/>
+      <c r="R54" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="S54" s="34"/>
+      <c r="T54" s="35"/>
+    </row>
+    <row r="55" spans="2:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J55" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O55" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="P55" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R55" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="S55" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="T55" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J56" s="16">
+        <v>10</v>
+      </c>
+      <c r="K56" s="16">
+        <v>45</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N56" s="16">
+        <v>10</v>
+      </c>
+      <c r="O56" s="16">
+        <v>45</v>
+      </c>
+      <c r="P56" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R56" s="16">
+        <v>10</v>
+      </c>
+      <c r="S56" s="16">
+        <v>45</v>
+      </c>
+      <c r="T56" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J57" s="1">
+        <f>RADIANS(J56)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="K57" s="1">
+        <f>RADIANS(K56)</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="1">
+        <f>RADIANS(N56)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="O57" s="1">
+        <f>RADIANS(O56)</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="P57" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="1">
+        <f>RADIANS(R56)</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="S57" s="1">
+        <f>RADIANS(S56)</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="T57" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J58" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K58" s="15">
+        <v>9.9999999999999947</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N58" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O58" s="15">
+        <v>9.9999999999999982</v>
+      </c>
+      <c r="P58" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R58" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="S58" s="15">
+        <v>10.000000000000004</v>
+      </c>
+      <c r="T58" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J59" s="7"/>
+      <c r="K59" s="9">
+        <f>RADIANS(K58)</f>
+        <v>0.17453292519943286</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="7"/>
+      <c r="O59" s="9">
+        <f>RADIANS(O58)</f>
+        <v>0.17453292519943292</v>
+      </c>
+      <c r="P59" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="7"/>
+      <c r="S59" s="9">
+        <f>RADIANS(S58)</f>
+        <v>0.174532925199433</v>
+      </c>
+      <c r="T59" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+    </row>
+    <row r="61" spans="2:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F61" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="17">
+        <v>1.736481776669303</v>
+      </c>
+      <c r="H61" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I61" s="15">
+        <v>20</v>
+      </c>
+      <c r="J61" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K61" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L61" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N61" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="O61" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="R61" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="S61" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="T61" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F62" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="17">
+        <v>3.7111359948427958</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I62" s="15">
+        <v>40</v>
+      </c>
+      <c r="J62" s="7"/>
+      <c r="K62" s="13">
+        <f>90-K58</f>
+        <v>80</v>
+      </c>
+      <c r="L62" s="9">
+        <f>RADIANS(K62)</f>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="N62" s="7"/>
+      <c r="O62" s="13">
+        <f>90-O58</f>
+        <v>80</v>
+      </c>
+      <c r="P62" s="9">
+        <f>RADIANS(O62)</f>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="R62" s="7"/>
+      <c r="S62" s="13">
+        <f>90-S58</f>
+        <v>80</v>
+      </c>
+      <c r="T62" s="9">
+        <f>RADIANS(S62)</f>
+        <v>1.3962634015954636</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F63" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="17">
+        <v>5</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I63" s="8">
+        <v>50</v>
+      </c>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T63" s="7"/>
+    </row>
+    <row r="64" spans="2:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F64" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="17">
+        <v>9.3969262078590816</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I64" s="15">
+        <v>70</v>
+      </c>
+      <c r="J64" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" s="28"/>
+      <c r="L64" s="29"/>
+      <c r="N64" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O64" s="28"/>
+      <c r="P64" s="29"/>
+      <c r="R64" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="S64" s="28"/>
+      <c r="T64" s="29"/>
+    </row>
+    <row r="65" spans="10:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J65" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K65" s="17">
+        <v>1</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N65" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O65" s="17">
+        <v>1</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R65" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="S65" s="17">
+        <v>1</v>
+      </c>
+      <c r="T65" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="10:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J66" s="31"/>
+      <c r="K66" s="17">
+        <f>COS(L62)+SIN(L62)*_xlfn.COT(K52)</f>
+        <v>2.8793852415718173</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N66" s="31"/>
+      <c r="O66" s="17">
+        <f>COS(P62)+SIN(P62)*_xlfn.COT(O52)</f>
+        <v>0.53208888623795625</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R66" s="31"/>
+      <c r="S66" s="17">
+        <f>COS(T62)+SIN(T62)*_xlfn.COT(S52)</f>
+        <v>0.53208888623795625</v>
+      </c>
+      <c r="T66" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="10:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J67" s="32"/>
+      <c r="K67" s="9">
+        <f>K65/K66</f>
+        <v>0.34729635533386061</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N67" s="32"/>
+      <c r="O67" s="9">
+        <f>O65/O66</f>
+        <v>1.8793852415718162</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R67" s="32"/>
+      <c r="S67" s="9">
+        <f>S65/S66</f>
+        <v>1.8793852415718162</v>
+      </c>
+      <c r="T67" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="10:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K68" s="11"/>
+      <c r="L68" s="12"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="12"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="12"/>
+    </row>
+    <row r="69" spans="10:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J69" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K69" s="28"/>
+      <c r="L69" s="29"/>
+      <c r="N69" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="O69" s="28"/>
+      <c r="P69" s="29"/>
+      <c r="R69" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="S69" s="28"/>
+      <c r="T69" s="29"/>
+    </row>
+    <row r="70" spans="10:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J70" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="18">
+        <v>10</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N70" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O70" s="18">
+        <v>10</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R70" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="S70" s="18">
+        <v>10</v>
+      </c>
+      <c r="T70" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="10:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J71" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K71" s="17">
+        <f>K70*K67</f>
+        <v>3.4729635533386061</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N71" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O71" s="17">
+        <f>O70*O67</f>
+        <v>18.793852415718163</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R71" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="S71" s="17">
+        <f>S70*S67</f>
+        <v>18.793852415718163</v>
+      </c>
+      <c r="T71" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="10:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J72" s="10"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="12"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="12"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="12"/>
+    </row>
+    <row r="73" spans="10:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J73" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" s="28"/>
+      <c r="L73" s="29"/>
+      <c r="N73" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="O73" s="28"/>
+      <c r="P73" s="29"/>
+      <c r="R73" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="S73" s="28"/>
+      <c r="T73" s="29"/>
+    </row>
+    <row r="74" spans="10:20" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J74" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="17">
+        <f>K71/K43</f>
+        <v>1.736481776669303</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N74" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="O74" s="17">
+        <f>O71/O43</f>
+        <v>9.3969262078590816</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R74" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="S74" s="17">
+        <f>S71/S43</f>
+        <v>9.3969262078590816</v>
+      </c>
+      <c r="T74" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="56">
+    <mergeCell ref="J69:L69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="R69:T69"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="R73:T73"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="R64:T64"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="N65:N67"/>
+    <mergeCell ref="R65:R67"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="R54:T54"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J24:L24"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A24:C24"/>
@@ -1065,5 +5025,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>